--- a/final_data_pipeline/output/322130_finishing_elec_nowhp.xlsx
+++ b/final_data_pipeline/output/322130_finishing_elec_nowhp.xlsx
@@ -1002,7 +1002,7 @@
         <v>78</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="J8">
         <v>8000</v>
@@ -1017,10 +1017,10 @@
         <v>772250.138850973</v>
       </c>
       <c r="N8">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="O8">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="P8">
         <v>96.53126735637161</v>
@@ -1305,7 +1305,7 @@
         <v>78</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="J14">
         <v>8000</v>
@@ -1320,10 +1320,10 @@
         <v>748247.6536538987</v>
       </c>
       <c r="N14">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="O14">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="P14">
         <v>93.53095670673733</v>
@@ -1358,7 +1358,7 @@
         <v>78</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>2.356481481481501</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1373,10 +1373,10 @@
         <v>1388344.049176779</v>
       </c>
       <c r="N15">
-        <v>1.800714285714286</v>
+        <v>1.678525338046114</v>
       </c>
       <c r="O15">
-        <v>1.963947368421052</v>
+        <v>1.817698795724144</v>
       </c>
       <c r="P15">
         <v>173.5430061470973</v>
@@ -1611,7 +1611,7 @@
         <v>78</v>
       </c>
       <c r="I20">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J20">
         <v>8000</v>
@@ -1626,10 +1626,10 @@
         <v>452911.3518907266</v>
       </c>
       <c r="N20">
-        <v>1.800714285714286</v>
+        <v>2.004820578273036</v>
       </c>
       <c r="O20">
-        <v>1.963947368421052</v>
+        <v>2.212959200483225</v>
       </c>
       <c r="P20">
         <v>56.61391898634082</v>
@@ -1664,7 +1664,7 @@
         <v>78</v>
       </c>
       <c r="I21">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="J21">
         <v>8000</v>
@@ -1679,10 +1679,10 @@
         <v>976552.9186945184</v>
       </c>
       <c r="N21">
-        <v>1.800714285714286</v>
+        <v>2.017497406510892</v>
       </c>
       <c r="O21">
-        <v>1.963947368421052</v>
+        <v>2.228623569098047</v>
       </c>
       <c r="P21">
         <v>122.0691148368148</v>
@@ -1717,7 +1717,7 @@
         <v>78</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J22">
         <v>8000</v>
@@ -1732,10 +1732,10 @@
         <v>234748.7032731175</v>
       </c>
       <c r="N22">
-        <v>1.800714285714286</v>
+        <v>1.904889690449167</v>
       </c>
       <c r="O22">
-        <v>1.963947368421052</v>
+        <v>2.090295475371289</v>
       </c>
       <c r="P22">
         <v>29.34358790913969</v>
@@ -1770,7 +1770,7 @@
         <v>78</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="J23">
         <v>8000</v>
@@ -1785,10 +1785,10 @@
         <v>1068567.635942585</v>
       </c>
       <c r="N23">
-        <v>1.800714285714286</v>
+        <v>1.618523362263702</v>
       </c>
       <c r="O23">
-        <v>1.963947368421052</v>
+        <v>1.746638928617865</v>
       </c>
       <c r="P23">
         <v>133.5709544928231</v>
@@ -1876,7 +1876,7 @@
         <v>78</v>
       </c>
       <c r="I25">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="J25">
         <v>8000</v>
@@ -1891,10 +1891,10 @@
         <v>112184.8082915212</v>
       </c>
       <c r="N25">
-        <v>1.800714285714286</v>
+        <v>1.862155209238257</v>
       </c>
       <c r="O25">
-        <v>1.963947368421052</v>
+        <v>2.038278558917324</v>
       </c>
       <c r="P25">
         <v>14.02310103644014</v>
@@ -2088,7 +2088,7 @@
         <v>78</v>
       </c>
       <c r="I29">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J29">
         <v>8000</v>
@@ -2103,10 +2103,10 @@
         <v>2521780.681358198</v>
       </c>
       <c r="N29">
-        <v>1.800714285714286</v>
+        <v>1.98600466835246</v>
       </c>
       <c r="O29">
-        <v>1.963947368421052</v>
+        <v>2.18975222777657</v>
       </c>
       <c r="P29">
         <v>315.2225851697747</v>
@@ -2141,7 +2141,7 @@
         <v>79</v>
       </c>
       <c r="I30">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="J30">
         <v>8000</v>
@@ -2241,7 +2241,7 @@
         <v>78</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="J32">
         <v>8000</v>
@@ -2256,10 +2256,10 @@
         <v>324720.4176463026</v>
       </c>
       <c r="N32">
-        <v>1.800714285714286</v>
+        <v>2.028520339740724</v>
       </c>
       <c r="O32">
-        <v>1.963947368421052</v>
+        <v>2.242263395092639</v>
       </c>
       <c r="P32">
         <v>40.59005220578783</v>
@@ -2294,7 +2294,7 @@
         <v>78</v>
       </c>
       <c r="I33">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="J33">
         <v>8000</v>
@@ -2309,10 +2309,10 @@
         <v>1848566.399005922</v>
       </c>
       <c r="N33">
-        <v>1.800714285714286</v>
+        <v>1.844936767548521</v>
       </c>
       <c r="O33">
-        <v>1.963947368421052</v>
+        <v>2.017393709936214</v>
       </c>
       <c r="P33">
         <v>231.0707998757402</v>
@@ -2347,7 +2347,7 @@
         <v>78</v>
       </c>
       <c r="I34">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J34">
         <v>8000</v>
@@ -2362,10 +2362,10 @@
         <v>2361640.838790822</v>
       </c>
       <c r="N34">
-        <v>1.800714285714286</v>
+        <v>1.904889690449167</v>
       </c>
       <c r="O34">
-        <v>1.963947368421052</v>
+        <v>2.090295475371289</v>
       </c>
       <c r="P34">
         <v>295.2051048488528</v>
@@ -2400,7 +2400,7 @@
         <v>79</v>
       </c>
       <c r="I35">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="J35">
         <v>8000</v>
@@ -2600,7 +2600,7 @@
         <v>78</v>
       </c>
       <c r="I39">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J39">
         <v>8000</v>
@@ -2615,10 +2615,10 @@
         <v>732033.6254695046</v>
       </c>
       <c r="N39">
-        <v>1.800714285714286</v>
+        <v>1.867546171126113</v>
       </c>
       <c r="O39">
-        <v>1.963947368421052</v>
+        <v>2.044826120875009</v>
       </c>
       <c r="P39">
         <v>91.50420318368808</v>
@@ -2653,7 +2653,7 @@
         <v>80</v>
       </c>
       <c r="I40">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J40">
         <v>8000</v>
@@ -2700,7 +2700,7 @@
         <v>78</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="J41">
         <v>8000</v>
@@ -2715,10 +2715,10 @@
         <v>925915.145581715</v>
       </c>
       <c r="N41">
-        <v>1.800714285714286</v>
+        <v>1.890159325210871</v>
       </c>
       <c r="O41">
-        <v>1.963947368421052</v>
+        <v>2.072335994446373</v>
       </c>
       <c r="P41">
         <v>115.7393931977144</v>
@@ -3259,7 +3259,7 @@
         <v>78</v>
       </c>
       <c r="I52">
-        <v>10</v>
+        <v>19.48611111111111</v>
       </c>
       <c r="J52">
         <v>8000</v>
@@ -3274,10 +3274,10 @@
         <v>398532.2275461503</v>
       </c>
       <c r="N52">
-        <v>1.800714285714286</v>
+        <v>1.979555038534245</v>
       </c>
       <c r="O52">
-        <v>1.963947368421052</v>
+        <v>2.181809322722105</v>
       </c>
       <c r="P52">
         <v>49.81652844326879</v>
@@ -3312,7 +3312,7 @@
         <v>78</v>
       </c>
       <c r="I53">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="J53">
         <v>8000</v>
@@ -3327,10 +3327,10 @@
         <v>110753.9372487739</v>
       </c>
       <c r="N53">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="O53">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="P53">
         <v>13.84424215609673</v>
